--- a/Resource_TestData/TestData.xlsx
+++ b/Resource_TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="12885" windowHeight="5700"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="15570" windowHeight="4830"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -462,8 +462,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -548,6 +548,9 @@
       </c>
       <c r="J2" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/Resource_TestData/TestData.xlsx
+++ b/Resource_TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="15570" windowHeight="4830"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="3615"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -462,7 +462,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>

--- a/Resource_TestData/TestData.xlsx
+++ b/Resource_TestData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>Name</t>
   </si>
@@ -43,9 +43,6 @@
     <t>anil</t>
   </si>
   <si>
-    <t>Testcase001</t>
-  </si>
-  <si>
     <t>Y</t>
   </si>
   <si>
@@ -58,9 +55,6 @@
     <t>testpass</t>
   </si>
   <si>
-    <t>Testcase002</t>
-  </si>
-  <si>
     <t>Testcase003</t>
   </si>
   <si>
@@ -85,12 +79,6 @@
     <t>N</t>
   </si>
   <si>
-    <t>Login_Username_ED</t>
-  </si>
-  <si>
-    <t>Login_Password_ED</t>
-  </si>
-  <si>
     <t>Loginpage_title</t>
   </si>
   <si>
@@ -104,6 +92,15 @@
   </si>
   <si>
     <t>Data_9</t>
+  </si>
+  <si>
+    <t>login_with_correct_credentials</t>
+  </si>
+  <si>
+    <t>login_with_invalid_credentials</t>
+  </si>
+  <si>
+    <t>maggi</t>
   </si>
 </sst>
 </file>
@@ -462,22 +459,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="34.140625" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="9" width="10.5703125" customWidth="1"/>
-    <col min="10" max="10" width="47.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -488,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -506,16 +503,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -523,34 +520,31 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2">
+        <v>14</v>
+      </c>
+      <c r="I2">
         <v>1</v>
+      </c>
+      <c r="J2" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -558,20 +552,20 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>10</v>
-      </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -580,16 +574,16 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
@@ -600,16 +594,16 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
@@ -632,6 +626,7 @@
     <hyperlink ref="G3" r:id="rId1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="256" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Resource_TestData/TestData.xlsx
+++ b/Resource_TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="3615"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5850"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -459,8 +459,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -545,6 +545,9 @@
       </c>
       <c r="J2" t="s">
         <v>27</v>
+      </c>
+      <c r="K2">
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:12">

--- a/Resource_TestData/TestData.xlsx
+++ b/Resource_TestData/TestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2520" windowWidth="16650" windowHeight="5850"/>
+    <workbookView xWindow="0" yWindow="2520" windowWidth="17790" windowHeight="5025"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTestData" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>maggi</t>
+  </si>
+  <si>
+    <t>login_as_counter_and_place_an_order</t>
   </si>
 </sst>
 </file>
@@ -459,14 +462,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -616,11 +619,21 @@
       <c r="A6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="B6" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="2">
+        <v>1</v>
+      </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>

--- a/Resource_TestData/TestData.xlsx
+++ b/Resource_TestData/TestData.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -55,9 +55,6 @@
     <t>testpass</t>
   </si>
   <si>
-    <t>Testcase003</t>
-  </si>
-  <si>
     <t>chaikings</t>
   </si>
   <si>
@@ -73,9 +70,6 @@
     <t>Run</t>
   </si>
   <si>
-    <t>Testcase004</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -104,6 +98,12 @@
   </si>
   <si>
     <t>login_as_counter_and_place_an_order</t>
+  </si>
+  <si>
+    <t>login_and_place_an_order</t>
+  </si>
+  <si>
+    <t>login_as_manager_and_check_manager_able_to_login_or_not</t>
   </si>
 </sst>
 </file>
@@ -463,13 +463,13 @@
   <dimension ref="A1:L6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="57.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -488,7 +488,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -506,16 +506,16 @@
         <v>6</v>
       </c>
       <c r="I1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -523,7 +523,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>8</v>
@@ -535,19 +535,19 @@
         <v>10</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="K2">
         <v>2000</v>
@@ -558,7 +558,7 @@
         <v>7</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>8</v>
@@ -571,7 +571,7 @@
       </c>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -580,7 +580,7 @@
         <v>7</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -600,13 +600,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -620,7 +620,7 @@
         <v>7</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>8</v>
@@ -634,7 +634,9 @@
       <c r="F6" s="2">
         <v>1</v>
       </c>
-      <c r="G6" s="2"/>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
       <c r="H6" s="2"/>
     </row>
   </sheetData>
